--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -1,192 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Balance Sheet of Quick Heal Technologies(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Total Share Capital</t>
-  </si>
-  <si>
-    <t>Reserves and Surplus</t>
-  </si>
-  <si>
-    <t>Total Reserves and Surplus</t>
-  </si>
-  <si>
-    <t>Total Shareholders Funds</t>
-  </si>
-  <si>
-    <t>Other Long Term Liabilities</t>
-  </si>
-  <si>
-    <t>Total Non-Current Liabilities</t>
-  </si>
-  <si>
-    <t>Trade Payables</t>
-  </si>
-  <si>
-    <t>Other Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Total Capital And Liabilities</t>
-  </si>
-  <si>
-    <t>Tangible Assets</t>
-  </si>
-  <si>
-    <t>Intangible Assets</t>
-  </si>
-  <si>
-    <t>Capital Work-In-Progress</t>
-  </si>
-  <si>
-    <t>Fixed Assets</t>
-  </si>
-  <si>
-    <t>Non-Current Investments</t>
-  </si>
-  <si>
-    <t>Deferred Tax Assets [Net]</t>
-  </si>
-  <si>
-    <t>Long Term Loans And Advances</t>
-  </si>
-  <si>
-    <t>Other Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Total Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Current Investments</t>
-  </si>
-  <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Trade Receivables</t>
-  </si>
-  <si>
-    <t>Cash And Cash Equivalents</t>
-  </si>
-  <si>
-    <t>Short Term Loans And Advances</t>
-  </si>
-  <si>
-    <t>OtherCurrentAssets</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Contingent Liabilities</t>
-  </si>
-  <si>
-    <t>Expenditure In Foreign Currency</t>
-  </si>
-  <si>
-    <t>FOB Value Of Goods</t>
-  </si>
-  <si>
-    <t>Bonus Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Non-Current Investments Unquoted Book Value</t>
-  </si>
-  <si>
-    <t>Current Investments Quoted Market Value</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -201,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -517,1619 +420,1723 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Balance Sheet of Quick Heal Technologies(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Share Capital</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reserves and Surplus</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Reserves and Surplus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Shareholders Funds</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Other Long Term Liabilities</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Non-Current Liabilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Trade Payables</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Liabilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Current Liabilities</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital And Liabilities</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tangible Assets</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Capital Work-In-Progress</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Fixed Assets</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Current Investments</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Deferred Tax Assets [Net]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Long Term Loans And Advances</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Other Non-Current Assets</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Total Non-Current Assets</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Current Investments</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trade Receivables</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Cash And Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Short Term Loans And Advances</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>OtherCurrentAssets</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total Current Assets</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Contingent Liabilities</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Expenditure In Foreign Currency</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>FOB Value Of Goods</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Bonus Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Current Investments Unquoted Book Value</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Current Investments Quoted Market Value</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar 19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>70.56</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>70.56</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>724.3099999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>724.3099999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>794.88</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>3.79</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>3.79</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>38.48</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>19.99</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>58.47</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>857.15</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>156.97</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>7.69</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>10.63</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>175.29</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>40.65</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>8.67</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>0.38</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>5.01</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>230</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>360.22</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>4.14</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>124.86</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>129.91</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>0.64</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>7.39</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>627.16</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>857.15</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>162.23</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>4.71</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>7.9</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>29.62</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>7.62</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>7.62</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>135.74</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>135.74</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>143.36</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1.98</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.26</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>14.92</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1.82</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>17.05</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>160.79</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>14.35</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.39</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1.97</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>16.71</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>24.53</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>5.46</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>31.21</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>0.02</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>47.94</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>48.7</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>4.48</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>47.7</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>13.48</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>2.97</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>4.34</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>112.85</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>160.79</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>4.48</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>8.84</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>9.17</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>51.27</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>20.43</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>246.88</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>7.63</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>7.63</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>202.71</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>202.71</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>210.34</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1.98</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.41</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>14.23</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2.59</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>18.83</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>229.59</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>17.96</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.9</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>23.83</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>42.69</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>24.53</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>5.46</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>0.04</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>51.78</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>100.13</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>0.61</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>65.68000000000001</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>7.55</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>3.67</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>0.16</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>177.8</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>229.59</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>2.39</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>8.84</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>9.17</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>51.27</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>20.43</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>246.88</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>7.63</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>7.63</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>278.02</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>278.02</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>285.65</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1.98</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.52</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>20.56</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>4.22</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>28.33</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>314.5</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>31.4</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>6.99</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>28.97</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>67.37</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>0.85</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>5.46</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>10.67</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>0.12</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>139.38</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>2.14</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>10.03</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>6.56</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>235.49</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>314.5</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>32.97</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>8.84</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>9.17</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>51.27</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>0.85</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>246.88</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar 14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>61.07</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>61.07</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>275.08</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>275.08</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>336.15</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1.98</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>1.73</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>28.62</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>5.26</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>46.87</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>383.01</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>63.19</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>18.51</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>55.41</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>137.11</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>4.05</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>3.93</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>15.78</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>0.04</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>160.91</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>131.38</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>5.42</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>70.91</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>8.17</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>6.07</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>0.16</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>222.11</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>383.01</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>6.52</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>8.84</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>9.17</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>4.05</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>246.88</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar 24</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>53.51</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>53.51</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>373.43</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>373.43</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>436.9</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>2.33</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>2.33</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>40.1</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>33.28</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>73.38</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>512.61</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>83.61</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>1.49</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>3.06</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>119.78</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>8.26</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>3.4</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>9.48</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>18.19</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>149.63</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>182.51</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>2.8</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>132.05</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>36.71</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>30.62</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>8.91</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>362.98</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>512.61</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>6.64</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>18.53</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>5.44</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>44.1</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>7.45</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>188.46</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar 15</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>61.07</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>61.07</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>276.56</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>276.56</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>337.63</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1.98</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1.73</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>36.92</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>7.46</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>96.05</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>433.68</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>100.11</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>10.85</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>73.73999999999999</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>184.7</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>9.31</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>4.85</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>17.59</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>0.12</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>216.57</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>129.61</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>6.96</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>67.66</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>7.34</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>5.37</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>0.16</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>217.11</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>433.68</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>83.25</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>6.97</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>4.91</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>9.31</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>132.43</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar 16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>70.03</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>70.03</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>547.53</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>547.53</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>617.5599999999999</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1.98</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>1.73</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>52.81</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>14.23</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>108</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>725.5599999999999</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>132.15</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>55.02</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>196.55</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>16.42</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>7.16</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>18.12</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>0.2</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>238.45</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>108.4</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>5.37</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>99.11</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>263.06</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>1.9</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>487.11</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>725.5599999999999</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>90.13</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>8.74</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>5.9</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>16.42</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>111.32</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar 17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>608.9400000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>608.9400000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>679.05</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>2.27</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>2.27</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>40.6</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>28.59</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>69.19</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>750.51</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>178.07</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>6.51</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>13.59</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>198.17</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>36.16</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>8.73</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>0.45</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>24.69</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>268.19</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>175.08</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>7.22</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>94.98999999999999</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>50.12</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>150.12</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>4.8</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>482.32</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>750.51</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>96.91</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>13.06</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>8.32</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>36.16</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>246.88</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar 18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>70.39</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>70.39</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>666.74</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>666.74</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>737.13</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>2.1</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>32.27</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>22.2</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>54.48</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>793.71</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>161.1</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>11.83</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>13.87</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>186.8</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>36.03</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>4.37</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>0.32</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>3.7</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>231.21</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>288.9</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>4.72</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>102.74</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>8.35</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>150.72</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>7.07</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>562.5</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>793.71</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>122.53</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>6.8</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>7.17</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>24.85</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>246.88</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar 20</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>64.2</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>64.2</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>584.01</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>584.01</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>648.21</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>2.43</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>2.43</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>38.36</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>10.98</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>49.34</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>699.98</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>148.48</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>9.960000000000001</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>3.4</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>161.84</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>45.4</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>2.59</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>0.38</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>17.72</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>227.92</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>274.52</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>6.22</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>113.23</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>73.51000000000001</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>0.71</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>3.87</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>472.06</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>699.98</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>105.71</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>4.59</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>35.33</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>301.84</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar 21</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>64.20999999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>64.20999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>691.6</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>691.6</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>755.8</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0.37</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>1.19</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>49.71</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>23.92</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>73.63</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>830.63</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>140.45</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>5.27</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>2.11</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>147.82</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>44.43</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>5.46</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>0.38</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>14.78</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>207.4</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>383.31</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>3.3</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>149.46</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>77.42</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>0.67</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>9.07</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>623.23</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>830.63</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>167.7</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>9.210000000000001</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>13.67</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>53.44</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>32.2</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>390.76</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar 22</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>58.01</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>58.01</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>569.2</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>569.2</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>627.21</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>1.41</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>2.05</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>65.73999999999999</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>20.89</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>86.63</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>715.89</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>105.94</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>5.72</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>23.8</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>137.02</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>30.45</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>5.46</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>9.48</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>16.75</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>184.22</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>290.07</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>4.79</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>172.93</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>59.2</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>30.62</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>4.68</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>531.67</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>715.89</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>7.49</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>7.51</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>14.94</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>48.27</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>27.47</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>290.07</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar 23</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>53.07</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>53.07</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>357.14</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>357.14</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>419.72</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>1.12</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>1.65</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>48.68</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>22.84</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>71.52</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>492.89</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>97.56999999999999</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>2.77</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>23.8</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>124.61</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>22.3</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>5.46</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>9.48</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>23.74</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>170.65</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>176.2</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>4.5</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>122.77</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>10.56</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>30.62</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>322.24</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>492.89</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>3.47</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>15.03</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>44.1</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>21.49</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>176.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>